--- a/data/import_excel/文库富集-结果表批量粘贴导入E.xlsx
+++ b/data/import_excel/文库富集-结果表批量粘贴导入E.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作文件夹\自动化文档\正式脚本\世和LIMS脚本\LIMS_UI_TEST\data\import_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB443B5-4B3A-4149-BF5E-22A37641C3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4466AE6E-C7CD-4417-9D87-12C3F0FB3E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1785" yWindow="3360" windowWidth="22890" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="富集结果表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="279">
   <si>
     <t>序号</t>
   </si>
@@ -118,9 +118,6 @@
     <t>0.36</t>
   </si>
   <si>
-    <t>20230811</t>
-  </si>
-  <si>
     <t>Novaseq-5</t>
   </si>
   <si>
@@ -163,9 +160,6 @@
     <t>NO5</t>
   </si>
   <si>
-    <t>20230809</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -187,9 +181,6 @@
     <t>NO8</t>
   </si>
   <si>
-    <t>20230613</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -830,9 +821,6 @@
   </si>
   <si>
     <t>NO99</t>
-  </si>
-  <si>
-    <t>20230824ZDH06</t>
   </si>
   <si>
     <t>子SOP编号</t>
@@ -847,27 +835,34 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>20230828ZDH01</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>20230828ZDH02</t>
-  </si>
-  <si>
-    <t>20230828ZDH03</t>
-  </si>
-  <si>
-    <t>20230828ZDH04</t>
-  </si>
-  <si>
-    <t>20230828ZDH05</t>
-  </si>
-  <si>
     <t>富集文库类型</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>磷酸化富集文库（非华大）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230828SRZDH01</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230828SRZDH02</t>
+  </si>
+  <si>
+    <t>20230828SRZDH03</t>
+  </si>
+  <si>
+    <t>20230828SRZDH04</t>
+  </si>
+  <si>
+    <t>20230828SRZDH05</t>
+  </si>
+  <si>
+    <t>20230828SRZDH06</t>
+  </si>
+  <si>
+    <t>20230828</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1283,7 +1278,7 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C2" sqref="C2:C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1307,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1367,7 +1362,7 @@
         <v>20</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1375,10 +1370,10 @@
         <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>22</v>
@@ -1387,7 +1382,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>25</v>
@@ -1420,253 +1415,253 @@
         <v>31</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>32</v>
+        <v>278</v>
       </c>
       <c r="R2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="T2" s="7" t="s">
         <v>21</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="T3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="W3" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="T4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="T5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V5" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W5" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="E6" s="7" t="s">
         <v>23</v>
       </c>
@@ -1704,39 +1699,39 @@
         <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>47</v>
+        <v>278</v>
       </c>
       <c r="R6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="T6" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W6" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1775,40 +1770,40 @@
         <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>278</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W7" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="E8" s="7" t="s">
         <v>23</v>
       </c>
@@ -1846,25 +1841,25 @@
         <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>278</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="W8" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1872,13 +1867,13 @@
         <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>23</v>
@@ -1917,39 +1912,39 @@
         <v>31</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="W9" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>23</v>
@@ -1988,39 +1983,39 @@
         <v>31</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="S10" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="T10" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="W10" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>23</v>
@@ -2059,39 +2054,39 @@
         <v>31</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V11" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="W11" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>23</v>
@@ -2130,39 +2125,39 @@
         <v>31</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V12" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="W12" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>23</v>
@@ -2201,39 +2196,39 @@
         <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V13" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W13" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>23</v>
@@ -2272,39 +2267,39 @@
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S14" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="S14" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="T14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V14" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="W14" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>23</v>
@@ -2343,39 +2338,39 @@
         <v>31</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V15" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="W15" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>23</v>
@@ -2414,39 +2409,39 @@
         <v>31</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V16" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="W16" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>23</v>
@@ -2485,39 +2480,39 @@
         <v>31</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V17" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="W17" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>23</v>
@@ -2556,39 +2551,39 @@
         <v>31</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="S18" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="T18" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V18" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="W18" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>23</v>
@@ -2627,39 +2622,39 @@
         <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V19" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="W19" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>23</v>
@@ -2698,25 +2693,25 @@
         <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="W20" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2724,13 +2719,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -2769,39 +2764,39 @@
         <v>31</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S21" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V21" s="8" t="s">
         <v>26</v>
       </c>
       <c r="W21" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>23</v>
@@ -2840,39 +2835,39 @@
         <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="S22" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="T22" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V22" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="W22" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>23</v>
@@ -2911,39 +2906,39 @@
         <v>31</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V23" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="W23" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>23</v>
@@ -2982,39 +2977,39 @@
         <v>31</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T24" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U24" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V24" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W24" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>23</v>
@@ -3053,39 +3048,39 @@
         <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V25" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="W25" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>23</v>
@@ -3124,39 +3119,39 @@
         <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S26" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="S26" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="T26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V26" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="W26" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>23</v>
@@ -3195,39 +3190,39 @@
         <v>31</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U27" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V27" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="W27" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>23</v>
@@ -3266,39 +3261,39 @@
         <v>31</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S28" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T28" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V28" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="W28" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>23</v>
@@ -3337,39 +3332,39 @@
         <v>31</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S29" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V29" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="W29" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>23</v>
@@ -3408,39 +3403,39 @@
         <v>31</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="S30" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="T30" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V30" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="W30" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>23</v>
@@ -3479,39 +3474,39 @@
         <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R31" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S31" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T31" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U31" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V31" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="W31" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>23</v>
@@ -3550,39 +3545,39 @@
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T32" s="7" t="s">
         <v>21</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V32" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="W32" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>23</v>
@@ -3621,39 +3616,39 @@
         <v>31</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R33" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T33" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V33" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="W33" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>23</v>
@@ -3692,39 +3687,39 @@
         <v>31</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="S34" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="T34" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V34" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="W34" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>23</v>
@@ -3763,39 +3758,39 @@
         <v>31</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R35" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S35" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T35" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V35" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="W35" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>23</v>
@@ -3834,39 +3829,39 @@
         <v>31</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S36" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T36" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U36" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V36" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="W36" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>23</v>
@@ -3905,39 +3900,39 @@
         <v>31</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R37" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T37" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V37" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="W37" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>23</v>
@@ -3976,39 +3971,39 @@
         <v>31</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S38" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="S38" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="T38" s="7" t="s">
         <v>21</v>
       </c>
       <c r="U38" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V38" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="W38" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>23</v>
@@ -4047,39 +4042,39 @@
         <v>31</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V39" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="W39" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>23</v>
@@ -4118,39 +4113,39 @@
         <v>31</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R40" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S40" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T40" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="T40" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="U40" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V40" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W40" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>23</v>
@@ -4189,39 +4184,39 @@
         <v>31</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R41" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S41" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T41" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V41" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="W41" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>23</v>
@@ -4260,40 +4255,40 @@
         <v>31</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R42" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S42" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T42" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U42" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V42" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="W42" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="E43" s="7" t="s">
         <v>23</v>
       </c>
@@ -4331,39 +4326,39 @@
         <v>31</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R43" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S43" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T43" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V43" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="W43" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>23</v>
@@ -4402,39 +4397,39 @@
         <v>31</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R44" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T44" s="7" t="s">
         <v>21</v>
       </c>
       <c r="U44" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V44" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W44" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>23</v>
@@ -4473,39 +4468,39 @@
         <v>31</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R45" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S45" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T45" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U45" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V45" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="W45" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>23</v>
@@ -4544,39 +4539,39 @@
         <v>31</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R46" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S46" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T46" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="T46" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="U46" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V46" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="W46" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>23</v>
@@ -4615,39 +4610,39 @@
         <v>31</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R47" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T47" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U47" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V47" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="W47" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>23</v>
@@ -4686,39 +4681,39 @@
         <v>31</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R48" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S48" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T48" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U48" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V48" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="W48" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>23</v>
@@ -4757,39 +4752,39 @@
         <v>31</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R49" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S49" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T49" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U49" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V49" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="W49" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>23</v>
@@ -4828,39 +4823,39 @@
         <v>31</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R50" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S50" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T50" s="7" t="s">
         <v>21</v>
       </c>
       <c r="U50" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V50" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="W50" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>23</v>
@@ -4899,39 +4894,39 @@
         <v>31</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R51" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S51" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T51" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U51" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V51" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="W51" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>23</v>
@@ -4970,39 +4965,39 @@
         <v>31</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R52" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S52" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T52" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="T52" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="U52" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V52" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="W52" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>23</v>
@@ -5041,39 +5036,39 @@
         <v>31</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R53" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S53" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T53" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U53" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V53" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="W53" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>23</v>
@@ -5112,39 +5107,39 @@
         <v>31</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R54" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S54" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T54" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U54" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V54" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="W54" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>23</v>
@@ -5183,39 +5178,39 @@
         <v>31</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R55" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S55" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T55" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U55" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V55" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="W55" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>23</v>
@@ -5254,39 +5249,39 @@
         <v>31</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R56" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S56" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T56" s="7" t="s">
         <v>21</v>
       </c>
       <c r="U56" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V56" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="W56" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>23</v>
@@ -5325,39 +5320,39 @@
         <v>31</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R57" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S57" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T57" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U57" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V57" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="W57" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>23</v>
@@ -5396,39 +5391,39 @@
         <v>31</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R58" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S58" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T58" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="T58" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="U58" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V58" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="W58" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>23</v>
@@ -5467,39 +5462,39 @@
         <v>31</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R59" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S59" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T59" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U59" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V59" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="W59" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>23</v>
@@ -5538,39 +5533,39 @@
         <v>31</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R60" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S60" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T60" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U60" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V60" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="W60" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>23</v>
@@ -5609,39 +5604,39 @@
         <v>31</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R61" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S61" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T61" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U61" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V61" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="W61" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>23</v>
@@ -5680,39 +5675,39 @@
         <v>31</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R62" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S62" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T62" s="7" t="s">
         <v>21</v>
       </c>
       <c r="U62" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V62" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="W62" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>23</v>
@@ -5751,39 +5746,39 @@
         <v>31</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R63" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S63" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T63" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U63" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V63" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="W63" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>23</v>
@@ -5822,39 +5817,39 @@
         <v>31</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R64" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S64" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T64" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="T64" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="U64" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V64" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="W64" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>23</v>
@@ -5893,39 +5888,39 @@
         <v>31</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R65" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S65" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T65" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U65" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V65" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="W65" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>23</v>
@@ -5964,39 +5959,39 @@
         <v>31</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R66" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S66" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T66" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U66" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V66" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="W66" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>23</v>
@@ -6035,39 +6030,39 @@
         <v>31</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R67" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S67" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T67" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U67" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V67" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="W67" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>23</v>
@@ -6106,39 +6101,39 @@
         <v>31</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R68" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S68" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T68" s="7" t="s">
         <v>21</v>
       </c>
       <c r="U68" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V68" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="W68" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>23</v>
@@ -6177,39 +6172,39 @@
         <v>31</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R69" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S69" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T69" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U69" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V69" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="W69" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>23</v>
@@ -6248,39 +6243,39 @@
         <v>31</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R70" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S70" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T70" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="T70" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="U70" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V70" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="W70" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>23</v>
@@ -6319,39 +6314,39 @@
         <v>31</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R71" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S71" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T71" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U71" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V71" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="W71" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>23</v>
@@ -6390,39 +6385,39 @@
         <v>31</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R72" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S72" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T72" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U72" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V72" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="W72" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>23</v>
@@ -6461,39 +6456,39 @@
         <v>31</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R73" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S73" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T73" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U73" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V73" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="W73" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>23</v>
@@ -6532,39 +6527,39 @@
         <v>31</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R74" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S74" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T74" s="7" t="s">
         <v>21</v>
       </c>
       <c r="U74" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V74" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="W74" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>23</v>
@@ -6603,39 +6598,39 @@
         <v>31</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R75" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S75" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T75" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U75" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V75" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="W75" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>23</v>
@@ -6674,39 +6669,39 @@
         <v>31</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R76" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S76" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T76" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="T76" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="U76" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V76" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="W76" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>23</v>
@@ -6745,39 +6740,39 @@
         <v>31</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R77" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S77" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T77" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U77" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V77" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="W77" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>23</v>
@@ -6816,39 +6811,39 @@
         <v>31</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R78" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S78" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T78" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U78" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V78" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="W78" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>23</v>
@@ -6887,39 +6882,39 @@
         <v>31</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R79" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S79" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T79" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U79" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V79" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="W79" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>23</v>
@@ -6958,39 +6953,39 @@
         <v>31</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R80" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S80" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T80" s="7" t="s">
         <v>21</v>
       </c>
       <c r="U80" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V80" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="W80" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>23</v>
@@ -7029,39 +7024,39 @@
         <v>31</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R81" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S81" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T81" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U81" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V81" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="W81" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>23</v>
@@ -7100,39 +7095,39 @@
         <v>31</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R82" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S82" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T82" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="T82" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="U82" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V82" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="W82" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>23</v>
@@ -7171,39 +7166,39 @@
         <v>31</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R83" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S83" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T83" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U83" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V83" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="W83" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>23</v>
@@ -7242,39 +7237,39 @@
         <v>31</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R84" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S84" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T84" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U84" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V84" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="W84" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>23</v>
@@ -7313,39 +7308,39 @@
         <v>31</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R85" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S85" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T85" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U85" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V85" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="W85" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>23</v>
@@ -7384,39 +7379,39 @@
         <v>31</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R86" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S86" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T86" s="7" t="s">
         <v>21</v>
       </c>
       <c r="U86" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V86" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="W86" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>23</v>
@@ -7455,39 +7450,39 @@
         <v>31</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R87" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S87" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T87" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U87" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V87" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="W87" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>23</v>
@@ -7526,39 +7521,39 @@
         <v>31</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R88" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S88" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T88" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="T88" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="U88" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V88" s="8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="W88" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>23</v>
@@ -7597,39 +7592,39 @@
         <v>31</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R89" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S89" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T89" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U89" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V89" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="W89" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>23</v>
@@ -7668,39 +7663,39 @@
         <v>31</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R90" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S90" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T90" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U90" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V90" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="W90" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>23</v>
@@ -7739,39 +7734,39 @@
         <v>31</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R91" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S91" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T91" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U91" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V91" s="8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="W91" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>23</v>
@@ -7810,39 +7805,39 @@
         <v>31</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R92" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S92" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T92" s="7" t="s">
         <v>21</v>
       </c>
       <c r="U92" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V92" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="W92" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>23</v>
@@ -7881,39 +7876,39 @@
         <v>31</v>
       </c>
       <c r="Q93" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R93" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S93" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T93" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U93" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V93" s="8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="W93" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="94" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>23</v>
@@ -7952,39 +7947,39 @@
         <v>31</v>
       </c>
       <c r="Q94" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R94" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S94" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T94" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="T94" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="U94" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V94" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="W94" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>23</v>
@@ -8023,39 +8018,39 @@
         <v>31</v>
       </c>
       <c r="Q95" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R95" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S95" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T95" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U95" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V95" s="8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="W95" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>23</v>
@@ -8094,39 +8089,39 @@
         <v>31</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R96" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S96" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T96" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U96" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V96" s="8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="W96" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="97" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>23</v>
@@ -8165,39 +8160,39 @@
         <v>31</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R97" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S97" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T97" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U97" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V97" s="8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="W97" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>23</v>
@@ -8236,39 +8231,39 @@
         <v>31</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R98" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S98" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T98" s="7" t="s">
         <v>21</v>
       </c>
       <c r="U98" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V98" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="W98" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>23</v>
@@ -8307,39 +8302,39 @@
         <v>31</v>
       </c>
       <c r="Q99" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R99" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S99" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T99" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U99" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V99" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="W99" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>23</v>
@@ -8378,25 +8373,25 @@
         <v>31</v>
       </c>
       <c r="Q100" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="R100" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S100" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T100" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="T100" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="U100" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V100" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="W100" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/data/import_excel/文库富集-结果表批量粘贴导入E.xlsx
+++ b/data/import_excel/文库富集-结果表批量粘贴导入E.xlsx
@@ -629,7 +629,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>20230906ZDH01</t>
+          <t>20230908ZDH01</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -704,7 +704,7 @@
       </c>
       <c r="Q2" s="7" t="inlineStr">
         <is>
-          <t>20230906</t>
+          <t>20230908</t>
         </is>
       </c>
       <c r="R2" s="6" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>20230906ZDH02</t>
+          <t>20230908ZDH02</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="Q3" s="7" t="inlineStr">
         <is>
-          <t>20230906</t>
+          <t>20230908</t>
         </is>
       </c>
       <c r="R3" s="6" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>20230906ZDH03</t>
+          <t>20230908ZDH03</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="Q4" s="7" t="inlineStr">
         <is>
-          <t>20230906</t>
+          <t>20230908</t>
         </is>
       </c>
       <c r="R4" s="6" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>20230906ZDH04</t>
+          <t>20230908ZDH04</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="Q5" s="7" t="inlineStr">
         <is>
-          <t>20230906</t>
+          <t>20230908</t>
         </is>
       </c>
       <c r="R5" s="6" t="inlineStr">

--- a/data/import_excel/文库富集-结果表批量粘贴导入E.xlsx
+++ b/data/import_excel/文库富集-结果表批量粘贴导入E.xlsx
@@ -629,7 +629,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>20230908ZDH01</t>
+          <t>20230911ZDH01</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -704,7 +704,7 @@
       </c>
       <c r="Q2" s="7" t="inlineStr">
         <is>
-          <t>20230908</t>
+          <t>20230911</t>
         </is>
       </c>
       <c r="R2" s="6" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>20230908ZDH02</t>
+          <t>20230911ZDH02</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="Q3" s="7" t="inlineStr">
         <is>
-          <t>20230908</t>
+          <t>20230911</t>
         </is>
       </c>
       <c r="R3" s="6" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>20230908ZDH03</t>
+          <t>20230911ZDH03</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="Q4" s="7" t="inlineStr">
         <is>
-          <t>20230908</t>
+          <t>20230911</t>
         </is>
       </c>
       <c r="R4" s="6" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>20230908ZDH04</t>
+          <t>20230911ZDH04</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="Q5" s="7" t="inlineStr">
         <is>
-          <t>20230908</t>
+          <t>20230911</t>
         </is>
       </c>
       <c r="R5" s="6" t="inlineStr">

--- a/data/import_excel/文库富集-结果表批量粘贴导入E.xlsx
+++ b/data/import_excel/文库富集-结果表批量粘贴导入E.xlsx
@@ -629,7 +629,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>20230911ZDH01</t>
+          <t>20230912ZDH01</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -704,7 +704,7 @@
       </c>
       <c r="Q2" s="7" t="inlineStr">
         <is>
-          <t>20230911</t>
+          <t>20230912</t>
         </is>
       </c>
       <c r="R2" s="6" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>20230911ZDH02</t>
+          <t>20230912ZDH02</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="Q3" s="7" t="inlineStr">
         <is>
-          <t>20230911</t>
+          <t>20230912</t>
         </is>
       </c>
       <c r="R3" s="6" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>20230911ZDH03</t>
+          <t>20230912ZDH03</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="Q4" s="7" t="inlineStr">
         <is>
-          <t>20230911</t>
+          <t>20230912</t>
         </is>
       </c>
       <c r="R4" s="6" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>20230911ZDH04</t>
+          <t>20230912ZDH04</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="Q5" s="7" t="inlineStr">
         <is>
-          <t>20230911</t>
+          <t>20230912</t>
         </is>
       </c>
       <c r="R5" s="6" t="inlineStr">

--- a/data/import_excel/文库富集-结果表批量粘贴导入E.xlsx
+++ b/data/import_excel/文库富集-结果表批量粘贴导入E.xlsx
@@ -629,7 +629,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>20230912ZDH01</t>
+          <t>20230915ZDH01</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -704,7 +704,7 @@
       </c>
       <c r="Q2" s="7" t="inlineStr">
         <is>
-          <t>20230912</t>
+          <t>20230915</t>
         </is>
       </c>
       <c r="R2" s="6" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>20230912ZDH02</t>
+          <t>20230915ZDH02</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="Q3" s="7" t="inlineStr">
         <is>
-          <t>20230912</t>
+          <t>20230915</t>
         </is>
       </c>
       <c r="R3" s="6" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>20230912ZDH03</t>
+          <t>20230915ZDH03</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="Q4" s="7" t="inlineStr">
         <is>
-          <t>20230912</t>
+          <t>20230915</t>
         </is>
       </c>
       <c r="R4" s="6" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>20230912ZDH04</t>
+          <t>20230915ZDH04</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="Q5" s="7" t="inlineStr">
         <is>
-          <t>20230912</t>
+          <t>20230915</t>
         </is>
       </c>
       <c r="R5" s="6" t="inlineStr">

--- a/data/import_excel/文库富集-结果表批量粘贴导入E.xlsx
+++ b/data/import_excel/文库富集-结果表批量粘贴导入E.xlsx
@@ -629,7 +629,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>20230915ZDH01</t>
+          <t>20230918ZDH01</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -704,7 +704,7 @@
       </c>
       <c r="Q2" s="7" t="inlineStr">
         <is>
-          <t>20230915</t>
+          <t>20230918</t>
         </is>
       </c>
       <c r="R2" s="6" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>20230915ZDH02</t>
+          <t>20230918ZDH02</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="Q3" s="7" t="inlineStr">
         <is>
-          <t>20230915</t>
+          <t>20230918</t>
         </is>
       </c>
       <c r="R3" s="6" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>20230915ZDH03</t>
+          <t>20230918ZDH03</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="Q4" s="7" t="inlineStr">
         <is>
-          <t>20230915</t>
+          <t>20230918</t>
         </is>
       </c>
       <c r="R4" s="6" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>20230915ZDH04</t>
+          <t>20230918ZDH04</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="Q5" s="7" t="inlineStr">
         <is>
-          <t>20230915</t>
+          <t>20230918</t>
         </is>
       </c>
       <c r="R5" s="6" t="inlineStr">

--- a/data/import_excel/文库富集-结果表批量粘贴导入E.xlsx
+++ b/data/import_excel/文库富集-结果表批量粘贴导入E.xlsx
@@ -629,7 +629,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>20230918ZDH01</t>
+          <t>20240115ZDH01</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -704,7 +704,7 @@
       </c>
       <c r="Q2" s="7" t="inlineStr">
         <is>
-          <t>20230918</t>
+          <t>20240115</t>
         </is>
       </c>
       <c r="R2" s="6" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>20230918ZDH02</t>
+          <t>20240115ZDH02</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="Q3" s="7" t="inlineStr">
         <is>
-          <t>20230918</t>
+          <t>20240115</t>
         </is>
       </c>
       <c r="R3" s="6" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>20230918ZDH03</t>
+          <t>20240115ZDH03</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="Q4" s="7" t="inlineStr">
         <is>
-          <t>20230918</t>
+          <t>20240115</t>
         </is>
       </c>
       <c r="R4" s="6" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>20230918ZDH04</t>
+          <t>20240115ZDH04</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="Q5" s="7" t="inlineStr">
         <is>
-          <t>20230918</t>
+          <t>20240115</t>
         </is>
       </c>
       <c r="R5" s="6" t="inlineStr">

--- a/data/import_excel/文库富集-结果表批量粘贴导入E.xlsx
+++ b/data/import_excel/文库富集-结果表批量粘贴导入E.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="32655" yWindow="3405" windowWidth="22890" windowHeight="12060" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="富集结果表" sheetId="1" state="visible" r:id="rId1"/>
@@ -67,6 +67,7 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
       <scheme val="minor"/>
     </font>
@@ -487,8 +488,8 @@
   </sheetPr>
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15"/>
@@ -500,8 +501,8 @@
     <col width="12.625" customWidth="1" style="5" min="11" max="21"/>
     <col width="12.375" customWidth="1" style="5" min="22" max="22"/>
     <col width="13.625" customWidth="1" style="5" min="23" max="23"/>
-    <col width="9" customWidth="1" style="5" min="24" max="26"/>
-    <col width="9" customWidth="1" style="5" min="27" max="16384"/>
+    <col width="9" customWidth="1" style="5" min="24" max="27"/>
+    <col width="9" customWidth="1" style="5" min="28" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" s="10">
@@ -629,7 +630,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>20240115ZDH01</t>
+          <t>20231027ZDH01</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -704,7 +705,7 @@
       </c>
       <c r="Q2" s="7" t="inlineStr">
         <is>
-          <t>20240115</t>
+          <t>20231027</t>
         </is>
       </c>
       <c r="R2" s="6" t="inlineStr">
@@ -746,7 +747,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>20240115ZDH02</t>
+          <t>20231027ZDH02</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -821,7 +822,7 @@
       </c>
       <c r="Q3" s="7" t="inlineStr">
         <is>
-          <t>20240115</t>
+          <t>20231027</t>
         </is>
       </c>
       <c r="R3" s="6" t="inlineStr">
@@ -863,7 +864,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>20240115ZDH03</t>
+          <t>20231027ZDH03</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -938,7 +939,7 @@
       </c>
       <c r="Q4" s="7" t="inlineStr">
         <is>
-          <t>20240115</t>
+          <t>20231027</t>
         </is>
       </c>
       <c r="R4" s="6" t="inlineStr">
@@ -980,7 +981,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>20240115ZDH04</t>
+          <t>20231027ZDH04</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1055,7 +1056,7 @@
       </c>
       <c r="Q5" s="7" t="inlineStr">
         <is>
-          <t>20240115</t>
+          <t>20231027</t>
         </is>
       </c>
       <c r="R5" s="6" t="inlineStr">
@@ -1097,7 +1098,7 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>20230828SRZDH05</t>
+          <t>20231027ZDH05</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">

--- a/data/import_excel/文库富集-结果表批量粘贴导入E.xlsx
+++ b/data/import_excel/文库富集-结果表批量粘贴导入E.xlsx
@@ -630,7 +630,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>20231027ZDH01</t>
+          <t>20240116ZDH01</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="Q2" s="7" t="inlineStr">
         <is>
-          <t>20231027</t>
+          <t>20240116</t>
         </is>
       </c>
       <c r="R2" s="6" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>20231027ZDH02</t>
+          <t>20240116ZDH02</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="Q3" s="7" t="inlineStr">
         <is>
-          <t>20231027</t>
+          <t>20240116</t>
         </is>
       </c>
       <c r="R3" s="6" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>20231027ZDH03</t>
+          <t>20240116ZDH03</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="Q4" s="7" t="inlineStr">
         <is>
-          <t>20231027</t>
+          <t>20240116</t>
         </is>
       </c>
       <c r="R4" s="6" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>20231027ZDH04</t>
+          <t>20240116ZDH04</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="Q5" s="7" t="inlineStr">
         <is>
-          <t>20231027</t>
+          <t>20240116</t>
         </is>
       </c>
       <c r="R5" s="6" t="inlineStr">

--- a/data/import_excel/文库富集-结果表批量粘贴导入E.xlsx
+++ b/data/import_excel/文库富集-结果表批量粘贴导入E.xlsx
@@ -630,7 +630,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>20240116ZDH01</t>
+          <t>20240429ZDH01</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="Q2" s="7" t="inlineStr">
         <is>
-          <t>20240116</t>
+          <t>20240429</t>
         </is>
       </c>
       <c r="R2" s="6" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>20240116ZDH02</t>
+          <t>20240429ZDH02</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="Q3" s="7" t="inlineStr">
         <is>
-          <t>20240116</t>
+          <t>20240429</t>
         </is>
       </c>
       <c r="R3" s="6" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>20240116ZDH03</t>
+          <t>20240429ZDH03</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="Q4" s="7" t="inlineStr">
         <is>
-          <t>20240116</t>
+          <t>20240429</t>
         </is>
       </c>
       <c r="R4" s="6" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>20240116ZDH04</t>
+          <t>20240429ZDH04</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="Q5" s="7" t="inlineStr">
         <is>
-          <t>20240116</t>
+          <t>20240429</t>
         </is>
       </c>
       <c r="R5" s="6" t="inlineStr">

--- a/data/import_excel/文库富集-结果表批量粘贴导入E.xlsx
+++ b/data/import_excel/文库富集-结果表批量粘贴导入E.xlsx
@@ -630,7 +630,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>20240429ZDH01</t>
+          <t>20240521ZDH01</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="Q2" s="7" t="inlineStr">
         <is>
-          <t>20240429</t>
+          <t>20240521</t>
         </is>
       </c>
       <c r="R2" s="6" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>20240429ZDH02</t>
+          <t>20240521ZDH02</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="Q3" s="7" t="inlineStr">
         <is>
-          <t>20240429</t>
+          <t>20240521</t>
         </is>
       </c>
       <c r="R3" s="6" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>20240429ZDH03</t>
+          <t>20240521ZDH03</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="Q4" s="7" t="inlineStr">
         <is>
-          <t>20240429</t>
+          <t>20240521</t>
         </is>
       </c>
       <c r="R4" s="6" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>20240429ZDH04</t>
+          <t>20240521ZDH04</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="Q5" s="7" t="inlineStr">
         <is>
-          <t>20240429</t>
+          <t>20240521</t>
         </is>
       </c>
       <c r="R5" s="6" t="inlineStr">
